--- a/limit_files/climatological_sensor_limits.xlsx
+++ b/limit_files/climatological_sensor_limits.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazzaro/Documents/Gliders/qc/limit_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B6D6F-AF1B-7047-9BF8-A5D702ABD0A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1200" windowWidth="20360" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="1140" windowWidth="20360" windowHeight="12040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="limits" sheetId="1" r:id="rId1"/>
     <sheet name="unit_conversion" sheetId="2" r:id="rId2"/>
     <sheet name="field_conversion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>Region</t>
   </si>
@@ -141,17 +150,32 @@
   </si>
   <si>
     <t>saturation</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>microgram L^-^1</t>
+  </si>
+  <si>
+    <t>chlor</t>
+  </si>
+  <si>
+    <t>ug/l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,15 +246,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -234,6 +272,9 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -244,10 +285,21 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -572,19 +624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -622,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -630,19 +682,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G2" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H2">
         <v>3.4</v>
@@ -660,7 +712,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -668,19 +720,19 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G3" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -698,7 +750,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -706,19 +758,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G4" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -730,7 +782,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -738,25 +790,25 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G5" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H5">
         <v>75</v>
       </c>
       <c r="I5">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="J5">
         <v>1.1000000000000001</v>
@@ -768,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -776,25 +828,25 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G6" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H6">
         <v>25</v>
       </c>
       <c r="I6">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>0.45</v>
@@ -806,7 +858,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -814,25 +866,25 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G7" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H7">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="I7">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="J7">
         <v>2.5000000000000001E-2</v>
@@ -844,7 +896,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -852,25 +904,25 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="4">
-        <v>42186</v>
+        <v>42736</v>
       </c>
       <c r="G8" s="4">
-        <v>42247</v>
+        <v>43100</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.4999999999999999E-2</v>
@@ -880,30 +932,574 @@
       </c>
       <c r="L8">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42736</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43100</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42186</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42247</v>
+      </c>
+      <c r="H10">
+        <v>3.4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4">
+        <v>42186</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42247</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>0.06</v>
+      </c>
+      <c r="K11">
+        <v>0.8</v>
+      </c>
+      <c r="L11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>42186</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42247</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>0.45</v>
+      </c>
+      <c r="L12">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>42125</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42277</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>325</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4">
+        <v>42125</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42277</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>140</v>
+      </c>
+      <c r="J14">
+        <v>0.75</v>
+      </c>
+      <c r="K14">
+        <v>2.25</v>
+      </c>
+      <c r="L14">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4">
+        <v>42186</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42247</v>
+      </c>
+      <c r="H15">
+        <v>1018</v>
+      </c>
+      <c r="I15">
+        <v>1026</v>
+      </c>
+      <c r="J15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42186</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42247</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <v>42614</v>
+      </c>
+      <c r="G17" s="4">
+        <v>42704</v>
+      </c>
+      <c r="H17">
+        <v>3.5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.03</v>
+      </c>
+      <c r="L17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42614</v>
+      </c>
+      <c r="G18" s="4">
+        <v>42704</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>0.01</v>
+      </c>
+      <c r="K18">
+        <v>0.4</v>
+      </c>
+      <c r="L18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4">
+        <v>42614</v>
+      </c>
+      <c r="G19" s="4">
+        <v>42704</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <v>0.45</v>
+      </c>
+      <c r="L19">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4">
+        <v>42614</v>
+      </c>
+      <c r="G20" s="4">
+        <v>42704</v>
+      </c>
+      <c r="H20">
+        <v>1020</v>
+      </c>
+      <c r="I20">
+        <v>1029</v>
+      </c>
+      <c r="J20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K20">
+        <v>0.15</v>
+      </c>
+      <c r="L20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4">
+        <v>42614</v>
+      </c>
+      <c r="G21" s="4">
+        <v>42704</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21">
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4">
+        <v>42278</v>
+      </c>
+      <c r="G22" s="4">
+        <v>42124</v>
+      </c>
+      <c r="H22">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>325</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4">
+        <v>42278</v>
+      </c>
+      <c r="G23" s="4">
+        <v>42124</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>140</v>
+      </c>
+      <c r="J23">
+        <v>0.15</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -917,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -931,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -945,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -959,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -973,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -987,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1068,31 +1664,54 @@
         <v>23</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1148,7 +1767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1156,21 +1775,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>